--- a/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.1.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreacontini\Documents\FSE\BLAISSED\A1#111#BLAISSEDSRLXX\BLAISSEDSRL\B-Medic\3.5.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreacontini\Documents\FSE\BLAISSED\A1#111#BLAISSEDSRLXX\BLAISSEDSRL\B-Medic\3.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE056FE-816C-4A84-AECF-BCDDD33D42FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7B885-99D9-4FBB-9D6E-A74A9AC82445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$192</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1713,27 +1713,6 @@
     <t>471, 472</t>
   </si>
   <si>
-    <t>c047c1d52b441c940ebc88e2e74c422b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.8b24d62373c26a0d38020cb9ebc7bae916f9eaf89b62f6d7b96fc15dce1c7825.4cd1d4f6a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>73a8df1932bee1dd58bf878da2da2a5b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.96fe185a37ed6a25a1339a5d7201104990ebd301c2f8ecaa30322dfadca1d840.da4a209c10^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-12 19:54:15</t>
-  </si>
-  <si>
-    <t>2025-05-12 19:44:20</t>
-  </si>
-  <si>
-    <t>12/05/2025</t>
-  </si>
-  <si>
     <t>Errore di pubblicazione FSE</t>
   </si>
   <si>
@@ -1747,6 +1726,27 @@
   </si>
   <si>
     <t>subject_application_version:3.1.0.0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.5afc31e5f38fe9b18526771c12f501165498be313ba3f9481d685901f416aa3c.5b54fd12d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>bd58a73adc1b5656ad6a76ec64f87c3c</t>
+  </si>
+  <si>
+    <t>2025-05-15 15:37:02</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>8b28e61361b3acfd6807901c37b6f983</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.a6d7efef6e3e84842c1c7e8951889bd505eab378facbdeec4dee4ae917907e17.fd80696817^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-15 15:37:25</t>
   </si>
 </sst>
 </file>
@@ -3913,10 +3913,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="76" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D3" s="68"/>
       <c r="F3" s="6"/>
@@ -4018,7 +4018,7 @@
       <c r="A4" s="72"/>
       <c r="B4" s="73"/>
       <c r="C4" s="76" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="4"/>
@@ -4045,7 +4045,7 @@
       <c r="A5" s="74"/>
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D5" s="68"/>
       <c r="F5" s="6"/>
@@ -6953,7 +6953,7 @@
         <v>64</v>
       </c>
       <c r="O83" s="38" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P83" s="38" t="s">
         <v>232</v>
@@ -6965,7 +6965,7 @@
         <v>64</v>
       </c>
       <c r="S83" s="38" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="T83" s="38" t="s">
         <v>230</v>
@@ -7733,16 +7733,16 @@
         <v>429</v>
       </c>
       <c r="F102" s="55">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="G102" s="56" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H102" s="57" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I102" s="58" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J102" s="51" t="s">
         <v>64</v>
@@ -8588,7 +8588,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>232</v>
@@ -8600,7 +8600,7 @@
         <v>64</v>
       </c>
       <c r="S124" s="38" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="T124" s="38" t="s">
         <v>230</v>
@@ -9286,16 +9286,16 @@
         <v>395</v>
       </c>
       <c r="F141" s="63" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G141" s="62" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H141" s="64" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
@@ -17592,6 +17592,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17849,42 +17870,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17907,9 +17896,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.1.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreacontini\Documents\FSE\BLAISSED\A1#111#BLAISSEDSRLXX\BLAISSEDSRL\B-Medic\3.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7B885-99D9-4FBB-9D6E-A74A9AC82445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E40E81-5D17-4DB8-9990-6529E739BDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1728,25 +1728,25 @@
     <t>subject_application_version:3.1.0.0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.5afc31e5f38fe9b18526771c12f501165498be313ba3f9481d685901f416aa3c.5b54fd12d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bd58a73adc1b5656ad6a76ec64f87c3c</t>
-  </si>
-  <si>
-    <t>2025-05-15 15:37:02</t>
-  </si>
-  <si>
-    <t>15/05/2025</t>
-  </si>
-  <si>
-    <t>8b28e61361b3acfd6807901c37b6f983</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.a6d7efef6e3e84842c1c7e8951889bd505eab378facbdeec4dee4ae917907e17.fd80696817^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-15 15:37:25</t>
+    <t>bbe665ffef913f3bb6583c15987b54ed</t>
+  </si>
+  <si>
+    <t>2025-05-16 17:55:07</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.5afc31e5f38fe9b18526771c12f501165498be313ba3f9481d685901f416aa3c.70d89b86b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.f41988aa1cef85ece34bde11966c016dff3ead3561684ef815bfccf8e5302b07.470cce3551^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>aeefe60276d970fcd6d4783e826bd51e</t>
+  </si>
+  <si>
+    <t>2025-05-16 17:54:51</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1908,14 +1908,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -2270,7 +2263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2417,31 +2410,18 @@
     <xf numFmtId="49" fontId="21" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2465,6 +2445,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3913,10 +3902,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I102:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3961,12 +3950,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="63"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3987,14 +3976,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="63"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4015,12 +4004,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="76" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4042,12 +4031,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="63"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4068,8 +4057,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -7732,17 +7721,17 @@
       <c r="E102" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="F102" s="55">
-        <v>45792</v>
-      </c>
-      <c r="G102" s="56" t="s">
+      <c r="F102" s="54">
+        <v>45793</v>
+      </c>
+      <c r="G102" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="H102" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="I102" s="74" t="s">
         <v>444</v>
-      </c>
-      <c r="H102" s="57" t="s">
-        <v>443</v>
-      </c>
-      <c r="I102" s="58" t="s">
-        <v>442</v>
       </c>
       <c r="J102" s="51" t="s">
         <v>64</v>
@@ -7781,10 +7770,10 @@
       <c r="E103" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="F103" s="59"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="60"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="57"/>
       <c r="J103" s="38" t="s">
         <v>232</v>
       </c>
@@ -9285,17 +9274,17 @@
       <c r="E141" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="F141" s="63" t="s">
+      <c r="F141" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="G141" s="62" t="s">
+      <c r="G141" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="H141" s="64" t="s">
+      <c r="H141" s="72" t="s">
+        <v>447</v>
+      </c>
+      <c r="I141" s="73" t="s">
         <v>446</v>
-      </c>
-      <c r="I141" s="54" t="s">
-        <v>447</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
@@ -17592,27 +17581,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17870,10 +17838,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17896,20 +17896,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.1.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreacontini\Documents\FSE\BLAISSED\A1#111#BLAISSEDSRLXX\BLAISSEDSRL\B-Medic\3.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E40E81-5D17-4DB8-9990-6529E739BDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A8A19-598B-45D3-B927-F6E45B4E3F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1722,31 +1722,31 @@
     <t>subject_application_id:B-Medic</t>
   </si>
   <si>
-    <t>subject_application_vendor:BLAISSEDSRL</t>
-  </si>
-  <si>
     <t>subject_application_version:3.1.0.0</t>
   </si>
   <si>
-    <t>bbe665ffef913f3bb6583c15987b54ed</t>
-  </si>
-  <si>
-    <t>2025-05-16 17:55:07</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.5afc31e5f38fe9b18526771c12f501165498be313ba3f9481d685901f416aa3c.70d89b86b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16/05/2025</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.f41988aa1cef85ece34bde11966c016dff3ead3561684ef815bfccf8e5302b07.470cce3551^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>aeefe60276d970fcd6d4783e826bd51e</t>
-  </si>
-  <si>
-    <t>2025-05-16 17:54:51</t>
+    <t>18ce48f7e89053c031aa3e0826cee0a7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.5afc31e5f38fe9b18526771c12f501165498be313ba3f9481d685901f416aa3c.cf1a981e44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
+  </si>
+  <si>
+    <t>2025-05-19 17:34:20</t>
+  </si>
+  <si>
+    <t>2510bde0947d380209573ee09441dce9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.f41988aa1cef85ece34bde11966c016dff3ead3561684ef815bfccf8e5302b07.bdcb90620c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>2025-05-19 17:34:42</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:Blaissed S.r.l.</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2424,6 +2424,15 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2446,14 +2455,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3902,10 +3905,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I103" sqref="I102:I103"/>
+      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3950,12 +3953,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="66"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3976,14 +3979,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="66"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4004,12 +4007,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="63"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="66"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4031,12 +4034,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="63"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="66"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4057,8 +4060,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -7722,16 +7725,16 @@
         <v>429</v>
       </c>
       <c r="F102" s="54">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="G102" s="55" t="s">
         <v>443</v>
       </c>
-      <c r="H102" s="72" t="s">
+      <c r="H102" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="I102" s="61" t="s">
         <v>442</v>
-      </c>
-      <c r="I102" s="74" t="s">
-        <v>444</v>
       </c>
       <c r="J102" s="51" t="s">
         <v>64</v>
@@ -9275,16 +9278,16 @@
         <v>395</v>
       </c>
       <c r="F141" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="G141" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="H141" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="I141" s="62" t="s">
         <v>445</v>
-      </c>
-      <c r="G141" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="H141" s="72" t="s">
-        <v>447</v>
-      </c>
-      <c r="I141" s="73" t="s">
-        <v>446</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
